--- a/Base de dados/d_linha_negocio_csv.xlsx
+++ b/Base de dados/d_linha_negocio_csv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PauloFerreira\OneDrive\Faculdades\Pós PUC-MINAS\TCC\TCC\Base de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A5F4EE3-52CC-442F-9CB1-77FA562061D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1475AE7B-A975-4E6C-A037-3D73DCA2BC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{4F4FAD1C-FFB5-43D8-9A06-661B60E3FE1C}"/>
+    <workbookView xWindow="7245" yWindow="4260" windowWidth="28800" windowHeight="11295" xr2:uid="{4F4FAD1C-FFB5-43D8-9A06-661B60E3FE1C}"/>
   </bookViews>
   <sheets>
     <sheet name="d_linha_negocio" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>cod_linha_negocio</t>
   </si>
   <si>
-    <t>_desc_linha_negocio</t>
+    <t>desc_linha_negocio</t>
   </si>
 </sst>
 </file>
